--- a/output/VALUE/rebalance/rebalance_20241231.xlsx
+++ b/output/VALUE/rebalance/rebalance_20241231.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02692364754098688</v>
+        <v>0.02692370355405575</v>
       </c>
       <c r="C2" t="n">
         <v>0.02736914015414117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00044549261315429</v>
+        <v>0.0004454366000854193</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02627857595766016</v>
+        <v>0.02627864405394895</v>
       </c>
       <c r="C3" t="n">
         <v>0.02586204872307024</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0004165272345899203</v>
+        <v>-0.0004165953308787121</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02777094123721289</v>
+        <v>0.02777137676390001</v>
       </c>
       <c r="C4" t="n">
         <v>0.0249847779042875</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002786163332925393</v>
+        <v>-0.002786598859612514</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02811870823850336</v>
+        <v>0.02811827131484698</v>
       </c>
       <c r="C5" t="n">
         <v>0.02411407625874632</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.004004631979757031</v>
+        <v>-0.004004195056100654</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02708747874203709</v>
+        <v>0.02708757803207321</v>
       </c>
       <c r="C6" t="n">
         <v>0.02398012851519166</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00310735022684543</v>
+        <v>-0.003107449516881546</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02657953602029587</v>
+        <v>0.02657997660365169</v>
       </c>
       <c r="C7" t="n">
         <v>0.02388739438646794</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.002692141633827923</v>
+        <v>-0.002692582217183746</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02454732171354948</v>
+        <v>0.0245473644184891</v>
       </c>
       <c r="C8" t="n">
         <v>0.02334584708377234</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.001201474629777145</v>
+        <v>-0.001201517334716757</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01473810525914199</v>
+        <v>0.01473785071551685</v>
       </c>
       <c r="C9" t="n">
         <v>0.02326802643188514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008529921172743146</v>
+        <v>0.008530175716368283</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02391585210036635</v>
+        <v>0.02391567622258177</v>
       </c>
       <c r="C10" t="n">
         <v>0.0224835905873775</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00143226151298885</v>
+        <v>-0.001432085635204274</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01967750464240458</v>
+        <v>0.01967814523748803</v>
       </c>
       <c r="C11" t="n">
         <v>0.02242801614889742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002750511506492848</v>
+        <v>0.00274987091140939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01924671764631023</v>
+        <v>0.01924681984282685</v>
       </c>
       <c r="C12" t="n">
         <v>0.02206558128627815</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002818863639967913</v>
+        <v>0.002818761443451299</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01916070331790409</v>
+        <v>0.01916070143748703</v>
       </c>
       <c r="C13" t="n">
         <v>0.02177884882982133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002618145511917237</v>
+        <v>0.002618147392334295</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01910253110743874</v>
+        <v>0.01910253974152735</v>
       </c>
       <c r="C14" t="n">
         <v>0.02163890035475071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00253636924731197</v>
+        <v>0.002536360613223355</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02104251228430754</v>
+        <v>0.02104238756572534</v>
       </c>
       <c r="C15" t="n">
         <v>0.02148036354584118</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0004378512615336415</v>
+        <v>0.0004379759801158463</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0157545733844062</v>
+        <v>0.01575475237834649</v>
       </c>
       <c r="C16" t="n">
         <v>0.02144915866176134</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005694585277355141</v>
+        <v>0.00569440628341485</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01461183456122112</v>
+        <v>0.01461199292096268</v>
       </c>
       <c r="C17" t="n">
         <v>0.02134387412617368</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006732039564952561</v>
+        <v>0.006731881205211003</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02014560163859852</v>
+        <v>0.0201455521874185</v>
       </c>
       <c r="C18" t="n">
         <v>0.02093223220530778</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0007866305667092559</v>
+        <v>0.0007866800178892783</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01750931901864708</v>
+        <v>0.01750924218959945</v>
       </c>
       <c r="C19" t="n">
         <v>0.02081245872384967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003303139705202587</v>
+        <v>0.003303216534250215</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02107727146903587</v>
+        <v>0.02107720814720946</v>
       </c>
       <c r="C20" t="n">
         <v>0.02069842010280448</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.000378851366231385</v>
+        <v>-0.0003787880444049811</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01736958021169348</v>
+        <v>0.01736954271348059</v>
       </c>
       <c r="C21" t="n">
         <v>0.02064859837176399</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003279018160070507</v>
+        <v>0.003279055658283403</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02192797560800898</v>
+        <v>0.02192779076581606</v>
       </c>
       <c r="C23" t="n">
         <v>0.0198010065468548</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002126969061154171</v>
+        <v>-0.002126784218961258</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01660254495530002</v>
+        <v>0.01660223388457287</v>
       </c>
       <c r="C24" t="n">
         <v>0.01975893966479692</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003156394709496906</v>
+        <v>0.003156705780224048</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0153756830426333</v>
+        <v>0.01537561251530942</v>
       </c>
       <c r="C25" t="n">
         <v>0.0197460629025977</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004370379859964392</v>
+        <v>0.004370450387288278</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.022149883410736</v>
+        <v>0.02214965451549656</v>
       </c>
       <c r="C27" t="n">
         <v>0.0194796595818118</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.002670223828924199</v>
+        <v>-0.00266999493368476</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0189491292855686</v>
+        <v>0.01894916665176243</v>
       </c>
       <c r="C28" t="n">
         <v>0.01930115550998396</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0003520262244153562</v>
+        <v>0.0003519888582215296</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02106309413243286</v>
+        <v>0.02106287804499834</v>
       </c>
       <c r="C29" t="n">
         <v>0.01913012681506604</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001932967317366821</v>
+        <v>-0.001932751229932302</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02065508652028057</v>
+        <v>0.02065517004549831</v>
       </c>
       <c r="C30" t="n">
         <v>0.01858579138152388</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002069295138756692</v>
+        <v>-0.002069378663974438</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02008353978106302</v>
+        <v>0.02008361568827927</v>
       </c>
       <c r="C33" t="n">
         <v>0.01782366784624452</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002259871934818494</v>
+        <v>-0.002259947842034749</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01771685981842287</v>
+        <v>0.01771653463845008</v>
       </c>
       <c r="C34" t="n">
         <v>0.01779053410416803</v>
       </c>
       <c r="D34" t="n">
-        <v>7.367428574515944e-05</v>
+        <v>7.399946571794852e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01747476892258317</v>
+        <v>0.01747455643914888</v>
       </c>
       <c r="C37" t="n">
         <v>0.01775141411472511</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0002766451921419437</v>
+        <v>0.0002768576755762392</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01393279108632699</v>
+        <v>0.01393265506093167</v>
       </c>
       <c r="C38" t="n">
         <v>0.01773930531816678</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003806514231839798</v>
+        <v>0.003806650257235119</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02073342777242429</v>
+        <v>0.02073286632699316</v>
       </c>
       <c r="C40" t="n">
         <v>0.01771531340467632</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.003018114367747963</v>
+        <v>-0.003017552922316834</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0243354811382159</v>
+        <v>0.02433572339614717</v>
       </c>
       <c r="C43" t="n">
         <v>0.0175813489010856</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.006754132237130298</v>
+        <v>-0.006754374495061565</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01857645082202006</v>
+        <v>0.01857641077054335</v>
       </c>
       <c r="C44" t="n">
         <v>0.0175175146249726</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.001058936197047462</v>
+        <v>-0.001058896145570747</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02015393601609283</v>
+        <v>0.02015379914972718</v>
       </c>
       <c r="C45" t="n">
         <v>0.0174908858082005</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.002663050207892328</v>
+        <v>-0.002662913341526674</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01793150986297594</v>
+        <v>0.01793153942128893</v>
       </c>
       <c r="C49" t="n">
         <v>0.01737469269708832</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0005568171658876207</v>
+        <v>-0.0005568467242006124</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02149075898595539</v>
+        <v>0.02149067977914938</v>
       </c>
       <c r="C50" t="n">
         <v>0.01735550820326391</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.004135250782691474</v>
+        <v>-0.004135171575885464</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01585079848789453</v>
+        <v>0.01585087575862971</v>
       </c>
       <c r="C51" t="n">
         <v>0.01733515015364347</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001484351665748937</v>
+        <v>0.001484274395013759</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01569321274302347</v>
+        <v>0.01569318735440769</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01569321274302347</v>
+        <v>-0.01569318735440769</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01570624896342234</v>
+        <v>0.01570619863153454</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01570624896342234</v>
+        <v>-0.01570619863153454</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0124388280092234</v>
+        <v>0.01243890302499576</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0124388280092234</v>
+        <v>-0.01243890302499576</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02029781188252264</v>
+        <v>0.02029820614510476</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02029781188252264</v>
+        <v>-0.02029820614510476</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01834782043418334</v>
+        <v>0.01834766812830908</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01834782043418334</v>
+        <v>-0.01834766812830908</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02078638516302631</v>
+        <v>0.02078636910189985</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02078638516302631</v>
+        <v>-0.02078636910189985</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02107056745096315</v>
+        <v>0.02107054662238551</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02107056745096315</v>
+        <v>-0.02107054662238551</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03166133958388073</v>
+        <v>0.03166200644761045</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.03166133958388073</v>
+        <v>-0.03166200644761045</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02138292253109701</v>
+        <v>0.02138295855882621</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02138292253109701</v>
+        <v>-0.02138295855882621</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01675057266948542</v>
+        <v>0.01675054545665816</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01675057266948542</v>
+        <v>-0.01675054545665816</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01116521738590694</v>
+        <v>0.01116525405728502</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01116521738590694</v>
+        <v>-0.01116525405728502</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01903703744260847</v>
+        <v>0.01903706757710406</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01903703744260847</v>
+        <v>-0.01903706757710406</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>

--- a/output/VALUE/rebalance/rebalance_20241231.xlsx
+++ b/output/VALUE/rebalance/rebalance_20241231.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26.96%</t>
+          <t>26.99%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02692370355405575</v>
+        <v>0.02696648962896754</v>
       </c>
       <c r="C2" t="n">
         <v>0.02736914015414117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004454366000854193</v>
+        <v>0.0004026505251736208</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02627864405394895</v>
+        <v>0.02632039157946513</v>
       </c>
       <c r="C3" t="n">
         <v>0.02586204872307024</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0004165953308787121</v>
+        <v>-0.000458342856394893</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02777137676390001</v>
+        <v>0.02781513157605828</v>
       </c>
       <c r="C4" t="n">
         <v>0.0249847779042875</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002786598859612514</v>
+        <v>-0.002830353671770789</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02811827131484698</v>
+        <v>0.02816345195944321</v>
       </c>
       <c r="C5" t="n">
         <v>0.02411407625874632</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.004004195056100654</v>
+        <v>-0.004049375700696887</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02708757803207321</v>
+        <v>0.02713058152540527</v>
       </c>
       <c r="C6" t="n">
         <v>0.02398012851519166</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.003107449516881546</v>
+        <v>-0.003150453010213605</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02657997660365169</v>
+        <v>0.02662183054294304</v>
       </c>
       <c r="C7" t="n">
         <v>0.02388739438646794</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.002692582217183746</v>
+        <v>-0.002734436156475093</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0245473644184891</v>
+        <v>0.02458638248772357</v>
       </c>
       <c r="C8" t="n">
         <v>0.02334584708377234</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.001201517334716757</v>
+        <v>-0.001240535403951231</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01473785071551685</v>
+        <v>0.01476155717817412</v>
       </c>
       <c r="C9" t="n">
         <v>0.02326802643188514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008530175716368283</v>
+        <v>0.008506469253711018</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02391567622258177</v>
+        <v>0.0239539080524158</v>
       </c>
       <c r="C10" t="n">
         <v>0.0224835905873775</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001432085635204274</v>
+        <v>-0.001470317465038302</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01967814523748803</v>
+        <v>0.01891623660423262</v>
       </c>
       <c r="C11" t="n">
         <v>0.02242801614889742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00274987091140939</v>
+        <v>0.003511779544664806</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01924681984282685</v>
+        <v>0.0192773438669769</v>
       </c>
       <c r="C12" t="n">
         <v>0.02206558128627815</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002818761443451299</v>
+        <v>0.002788237419301249</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01916070143748703</v>
+        <v>0.01919119266880155</v>
       </c>
       <c r="C13" t="n">
         <v>0.02177884882982133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002618147392334295</v>
+        <v>0.002587656161019775</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01910253974152735</v>
+        <v>0.01913292789216534</v>
       </c>
       <c r="C14" t="n">
         <v>0.02163890035475071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002536360613223355</v>
+        <v>0.002505972462585365</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02104238756572534</v>
+        <v>0.02107599605210855</v>
       </c>
       <c r="C15" t="n">
         <v>0.02148036354584118</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0004379759801158463</v>
+        <v>0.0004043674937326373</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01575475237834649</v>
+        <v>0.01577964275206914</v>
       </c>
       <c r="C16" t="n">
         <v>0.02144915866176134</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00569440628341485</v>
+        <v>0.0056695159096922</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01461199292096268</v>
+        <v>0.01463508555278448</v>
       </c>
       <c r="C17" t="n">
         <v>0.02134387412617368</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006731881205211003</v>
+        <v>0.006708788573389203</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0201455521874185</v>
+        <v>0.02017765820287014</v>
       </c>
       <c r="C18" t="n">
         <v>0.02093223220530778</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0007866800178892783</v>
+        <v>0.0007545740024376343</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01750924218959945</v>
+        <v>0.01753718061447046</v>
       </c>
       <c r="C19" t="n">
         <v>0.02081245872384967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003303216534250215</v>
+        <v>0.003275278109379203</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02107720814720946</v>
+        <v>0.02111081054717505</v>
       </c>
       <c r="C20" t="n">
         <v>0.02069842010280448</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0003787880444049811</v>
+        <v>-0.0004123904443705632</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01736954271348059</v>
+        <v>0.01739721944900275</v>
       </c>
       <c r="C21" t="n">
         <v>0.02064859837176399</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003279055658283403</v>
+        <v>0.003251378922761242</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02192779076581606</v>
+        <v>0.02196286836385888</v>
       </c>
       <c r="C23" t="n">
         <v>0.0198010065468548</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002126784218961258</v>
+        <v>-0.002161861817004077</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01660223388457287</v>
+        <v>0.0166289636524916</v>
       </c>
       <c r="C24" t="n">
         <v>0.01975893966479692</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003156705780224048</v>
+        <v>0.003129976012305326</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01537561251530942</v>
+        <v>0.01540014950337837</v>
       </c>
       <c r="C25" t="n">
         <v>0.0197460629025977</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004370450387288278</v>
+        <v>0.004345913399219324</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02214965451549656</v>
+        <v>0.02218512927600738</v>
       </c>
       <c r="C27" t="n">
         <v>0.0194796595818118</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.00266999493368476</v>
+        <v>-0.002705469694195582</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01894916665176243</v>
+        <v>0.01897928197059293</v>
       </c>
       <c r="C28" t="n">
         <v>0.01930115550998396</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0003519888582215296</v>
+        <v>0.0003218735393910321</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02106287804499834</v>
+        <v>0.02109661065097265</v>
       </c>
       <c r="C29" t="n">
         <v>0.01913012681506604</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001932751229932302</v>
+        <v>-0.001966483835906613</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02065517004549831</v>
+        <v>0.02068795379922568</v>
       </c>
       <c r="C30" t="n">
         <v>0.01858579138152388</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002069378663974438</v>
+        <v>-0.002102162417701808</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02008361568827927</v>
+        <v>0.02011549758978689</v>
       </c>
       <c r="C33" t="n">
         <v>0.01782366784624452</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002259947842034749</v>
+        <v>-0.002291829743542365</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01771653463845008</v>
+        <v>0.01774505166226297</v>
       </c>
       <c r="C34" t="n">
         <v>0.01779053410416803</v>
       </c>
       <c r="D34" t="n">
-        <v>7.399946571794852e-05</v>
+        <v>4.548244190506062e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01747455643914888</v>
+        <v>0.01750257554077943</v>
       </c>
       <c r="C37" t="n">
         <v>0.01775141411472511</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0002768576755762392</v>
+        <v>0.0002488385739456804</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01393265506093167</v>
+        <v>0.01395496155415188</v>
       </c>
       <c r="C38" t="n">
         <v>0.01773930531816678</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003806650257235119</v>
+        <v>0.003784343764014906</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02073286632699316</v>
+        <v>0.02046632694100736</v>
       </c>
       <c r="C40" t="n">
         <v>0.01771531340467632</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.003017552922316834</v>
+        <v>-0.002751013536331035</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02433572339614717</v>
+        <v>0.02437420482238195</v>
       </c>
       <c r="C43" t="n">
         <v>0.0175813489010856</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.006754374495061565</v>
+        <v>-0.006792855921296345</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01857641077054335</v>
+        <v>0.01860601048473938</v>
       </c>
       <c r="C44" t="n">
         <v>0.0175175146249726</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.001058896145570747</v>
+        <v>-0.001088495859766773</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02015379914972718</v>
+        <v>0.02018600584239122</v>
       </c>
       <c r="C45" t="n">
         <v>0.0174908858082005</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.002662913341526674</v>
+        <v>-0.002695120034190712</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01793153942128893</v>
+        <v>0.01796004326737467</v>
       </c>
       <c r="C49" t="n">
         <v>0.01737469269708832</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0005568467242006124</v>
+        <v>-0.0005853505702863512</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02149067977914938</v>
+        <v>0.02152495602355388</v>
       </c>
       <c r="C50" t="n">
         <v>0.01735550820326391</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.004135171575885464</v>
+        <v>-0.004169447820289968</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01585087575862971</v>
+        <v>0.01587602097315948</v>
       </c>
       <c r="C51" t="n">
         <v>0.01733515015364347</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001484274395013759</v>
+        <v>0.001459129180483982</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01569318735440769</v>
+        <v>0.01571818447094453</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01569318735440769</v>
+        <v>-0.01571818447094453</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01570619863153454</v>
+        <v>0.01573124143514863</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01570619863153454</v>
+        <v>-0.01573124143514863</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01243890302499576</v>
+        <v>0.01245862121752239</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01243890302499576</v>
+        <v>-0.01245862121752239</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02029820614510476</v>
+        <v>0.02033011065040548</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02029820614510476</v>
+        <v>-0.02033011065040548</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01834766812830908</v>
+        <v>0.01837701629020909</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01834766812830908</v>
+        <v>-0.01837701629020909</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02078636910189985</v>
+        <v>0.02032089005836805</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02078636910189985</v>
+        <v>-0.02032089005836805</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02107054662238551</v>
+        <v>0.02110409586137495</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02107054662238551</v>
+        <v>-0.02110409586137495</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03166200644761045</v>
+        <v>0.03171172049508424</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.03166200644761045</v>
+        <v>-0.03171172049508424</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02138295855882621</v>
+        <v>0.02141694797460226</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02138295855882621</v>
+        <v>-0.02141694797460226</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01675054545665816</v>
+        <v>0.01677722691486357</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01675054545665816</v>
+        <v>-0.01677722691486357</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01116525405728502</v>
+        <v>0.01118298396916213</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01116525405728502</v>
+        <v>-0.01118298396916213</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01903706757710406</v>
+        <v>0.01906733001094511</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01903706757710406</v>
+        <v>-0.01906733001094511</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
